--- a/APIs/Budget.xlsx
+++ b/APIs/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusti\Documents\Thesis\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC2A02-3BC3-45E6-A986-A27E4CA28ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAD494-97E1-41E2-9BF6-9728E731B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDCFCD41-2117-48D6-AF61-B840D53340BB}"/>
+    <workbookView xWindow="828" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{CDCFCD41-2117-48D6-AF61-B840D53340BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Budgeted</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Gas</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F176869-DE9F-439B-AA73-05CE85C682F3}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +452,7 @@
         <v>6000</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,37 +490,59 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C7">
-        <v>750</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f>SUM(B2:B7)</f>
-        <v>9200</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C2:C7)</f>
-        <v>2815</v>
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
+        <v>10700</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C9)</f>
+        <v>14595</v>
       </c>
     </row>
   </sheetData>

--- a/APIs/Budget.xlsx
+++ b/APIs/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusti\Documents\Thesis\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAD494-97E1-41E2-9BF6-9728E731B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF6789C-8FF3-4B31-AD9A-B0C4F7CBDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{CDCFCD41-2117-48D6-AF61-B840D53340BB}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>6000</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C9">
-        <v>750</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,11 +538,11 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>10700</v>
+        <v>15200</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C9)</f>
-        <v>14595</v>
+        <v>10845</v>
       </c>
     </row>
   </sheetData>
